--- a/logs/2024/Skunk Works_ A Personal Memoir of My Years at Lockheed -  Ben R. Rich.xlsx
+++ b/logs/2024/Skunk Works_ A Personal Memoir of My Years at Lockheed -  Ben R. Rich.xlsx
@@ -430,7 +430,7 @@
         <v>45566</v>
       </c>
       <c r="B1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45568</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45569</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45570</v>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45571</v>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45572</v>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45574</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45575</v>
       </c>
       <c r="B8" t="n">
-        <v>132</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45576</v>
       </c>
       <c r="B9" t="n">
-        <v>163</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>45577</v>
       </c>
       <c r="B10" t="n">
-        <v>176</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
